--- a/data/intermediate/table2.02_20241202_e(2)_2.02 In USD SITC 2014-2024_organized.xlsx
+++ b/data/intermediate/table2.02_20241202_e(2)_2.02 In USD SITC 2014-2024_organized.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U329"/>
+  <dimension ref="A1:U160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1900-01-03</t>
+          <t xml:space="preserve">                National Gem and Jewellery Authority</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -571,7 +571,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1900-01-06</t>
+          <t xml:space="preserve">               Central Bank of Sri Lanka</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -611,7 +611,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1900-01-09</t>
+          <t xml:space="preserve">               Sri Lanka Customs</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -651,7 +651,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1900-01-10</t>
+          <t>(a)  The latest version of SITC Revision 4 published in 2006</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -691,7 +691,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1900-01-15</t>
+          <t>(b) Provisional</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -731,7 +731,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1900-01-24</t>
+          <t>2.02: Export Performance based on Standard International Trade Classification (SITC ) Monthly 2014-2024 (a)</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -771,7 +771,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1900-01-25</t>
+          <t>2.02: Export Performance based on Standard International Trade Classification (SITC ) Monthly 2014-2024 (a)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -811,7 +811,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1900-02-01</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -848,7 +848,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1900-02-13</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -888,7 +888,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1900-02-15</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -928,7 +928,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1900-02-24</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -968,7 +968,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1900-03-25</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1008,7 +1008,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1900-06-03</t>
+          <t>January</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1018,7 +1018,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1900-06-07</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1058,7 +1058,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1900-07-27</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -1098,7 +1098,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1900-07-29</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1138,7 +1138,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1901-02-06</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1178,7 +1178,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1901-03-25</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1218,7 +1218,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1902-08-27</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -1258,7 +1258,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1902-09-04</t>
+          <t>January</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1298,7 +1298,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1335,7 +1335,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>Table 2.02.3: Exports (US$ Million)</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1375,7 +1375,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>… Negligible</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -1413,11 +1413,6 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
       <c r="D25" t="n">
         <v>838.4221305919957</v>
       </c>
@@ -1453,11 +1448,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
       <c r="D26" t="n">
         <v>820.500899422696</v>
       </c>
@@ -1493,21 +1483,11 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
       <c r="E27" t="n">
         <v>0.02575071832009031</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                National Gem and Jewellery Authority</t>
-        </is>
-      </c>
       <c r="D28" t="n">
         <v>898.594618575135</v>
       </c>
@@ -1543,11 +1523,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               Central Bank of Sri Lanka</t>
-        </is>
-      </c>
       <c r="D29" t="n">
         <v>891.5970221812356</v>
       </c>
@@ -1583,11 +1558,6 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">               Sri Lanka Customs</t>
-        </is>
-      </c>
       <c r="D30" t="n">
         <v>949.0116350836981</v>
       </c>
@@ -1623,11 +1593,6 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>(a)  The latest version of SITC Revision 4 published in 2006</t>
-        </is>
-      </c>
       <c r="D31" t="n">
         <v>710.3897803653813</v>
       </c>
@@ -1663,11 +1628,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>(b) Provisional</t>
-        </is>
-      </c>
       <c r="D32" t="n">
         <v>780.1272098015406</v>
       </c>
@@ -1703,11 +1663,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2.02: Export Performance based on Standard International Trade Classification (SITC ) Monthly 2014-2024 (a)</t>
-        </is>
-      </c>
       <c r="D33" t="n">
         <v>900.5619459385096</v>
       </c>
@@ -1740,11 +1695,6 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2.02: Export Performance based on Standard International Trade Classification (SITC ) Monthly 2014-2024 (a)</t>
-        </is>
-      </c>
       <c r="D34" t="n">
         <v>891.5439655383418</v>
       </c>
@@ -1777,11 +1727,6 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Animal and Vegetable Oils, Fats and Waxes</t>
-        </is>
-      </c>
       <c r="D35" t="n">
         <v>866.3099109246</v>
       </c>
@@ -1814,11 +1759,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Animal and Vegetable Oils, Fats and Waxes</t>
-        </is>
-      </c>
       <c r="D36" t="n">
         <v>897.8775700778094</v>
       </c>
@@ -1851,11 +1791,6 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D37" t="n">
         <v>855.0431213174927</v>
       </c>
@@ -1888,11 +1823,6 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D38" t="n">
         <v>809.6505412056307</v>
       </c>
@@ -1925,11 +1855,6 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D39" t="n">
         <v>859.0316990634382</v>
       </c>
@@ -1961,19 +1886,8 @@
         <v>433.7327183213552</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
+    <row r="40"/>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D41" t="n">
         <v>864.7176173932837</v>
       </c>
@@ -2006,11 +1920,6 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D42" t="n">
         <v>867.8069877581088</v>
       </c>
@@ -2043,11 +1952,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D43" t="n">
         <v>1041.818219027803</v>
       </c>
@@ -2080,11 +1984,6 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D44" t="n">
         <v>794.6621201873859</v>
       </c>
@@ -2117,11 +2016,6 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D45" t="n">
         <v>841.2448575017796</v>
       </c>
@@ -2154,11 +2048,6 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D46" t="n">
         <v>987.3032456286517</v>
       </c>
@@ -2191,11 +2080,6 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D47" t="n">
         <v>1015.181958644504</v>
       </c>
@@ -2228,11 +2112,6 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D48" t="n">
         <v>1000.642691482216</v>
       </c>
@@ -2265,11 +2144,6 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D49" t="n">
         <v>1011.025549455929</v>
       </c>
@@ -2302,11 +2176,6 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D50" t="n">
         <v>975.5798144486419</v>
       </c>
@@ -2339,11 +2208,6 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D51" t="n">
         <v>940.9320110191799</v>
       </c>
@@ -2376,11 +2240,6 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D52" t="n">
         <v>1019.502913673467</v>
       </c>
@@ -2412,19 +2271,8 @@
         <v>511.6321150649752</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
-    </row>
+    <row r="53"/>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D54" t="n">
         <v>965.3701425744973</v>
       </c>
@@ -2457,11 +2305,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D55" t="n">
         <v>915.6503453213888</v>
       </c>
@@ -2494,11 +2337,6 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D56" t="n">
         <v>1107.663260751403</v>
       </c>
@@ -2531,11 +2369,6 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D57" t="n">
         <v>795.0546716824356</v>
       </c>
@@ -2568,11 +2401,6 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>April</t>
-        </is>
-      </c>
       <c r="D58" t="n">
         <v>923.7576297403434</v>
       </c>
@@ -2605,11 +2433,6 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D59" t="n">
         <v>1024.368284456934</v>
       </c>
@@ -2642,11 +2465,6 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D60" t="n">
         <v>1073.164300689126</v>
       </c>
@@ -2679,11 +2497,6 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D61" t="n">
         <v>1037.360614014998</v>
       </c>
@@ -2716,11 +2529,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D62" t="n">
         <v>1055.214608086198</v>
       </c>
@@ -2753,11 +2561,6 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D63" t="n">
         <v>979.0960894645659</v>
       </c>
@@ -2790,11 +2593,6 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D64" t="n">
         <v>979.551200915091</v>
       </c>
@@ -2827,11 +2625,6 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D65" t="n">
         <v>1033.383108451671</v>
       </c>
@@ -2863,19 +2656,8 @@
         <v>520.0154598385324</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
+    <row r="66"/>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D67" t="n">
         <v>1038.146850789025</v>
       </c>
@@ -2908,11 +2690,6 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D68" t="n">
         <v>981.1198838096759</v>
       </c>
@@ -2945,11 +2722,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D69" t="n">
         <v>1136.862305459054</v>
       </c>
@@ -2982,11 +2754,6 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D70" t="n">
         <v>798.1056022403443</v>
       </c>
@@ -3019,11 +2786,6 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D71" t="n">
         <v>961.0197730366249</v>
       </c>
@@ -3056,11 +2818,6 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D72" t="n">
         <v>1083.954426800322</v>
       </c>
@@ -3093,11 +2850,6 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D73" t="n">
         <v>998.5344346682732</v>
       </c>
@@ -3130,11 +2882,6 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D74" t="n">
         <v>1032.505270289188</v>
       </c>
@@ -3167,11 +2914,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D75" t="n">
         <v>953.7545302038527</v>
       </c>
@@ -3204,11 +2946,6 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D76" t="n">
         <v>977.2802613026088</v>
       </c>
@@ -3241,11 +2978,6 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D77" t="n">
         <v>978.7856206740919</v>
       </c>
@@ -3278,11 +3010,6 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D78" t="n">
         <v>999.9429518693603</v>
       </c>
@@ -3314,19 +3041,8 @@
         <v>512.2404978706664</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
-    </row>
+    <row r="79"/>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>August</t>
-        </is>
-      </c>
       <c r="D80" t="n">
         <v>1004.885092617444</v>
       </c>
@@ -3359,11 +3075,6 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Beverages and Tobacco</t>
-        </is>
-      </c>
       <c r="D81" t="n">
         <v>988.5170201257566</v>
       </c>
@@ -3396,11 +3107,6 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Beverages and Tobacco</t>
-        </is>
-      </c>
       <c r="D82" t="n">
         <v>656.2184495098973</v>
       </c>
@@ -3433,11 +3139,6 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Central Bank of Sri Lanka</t>
-        </is>
-      </c>
       <c r="D83" t="n">
         <v>282.3103443550165</v>
       </c>
@@ -3470,11 +3171,6 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Chemicals and Related Products, n.e.s.</t>
-        </is>
-      </c>
       <c r="D84" t="n">
         <v>586.6872740660409</v>
       </c>
@@ -3507,11 +3203,6 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Chemicals and Related Products, n.e.s.</t>
-        </is>
-      </c>
       <c r="D85" t="n">
         <v>894.1352989903875</v>
       </c>
@@ -3544,11 +3235,6 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Commodities and Transactions Not Classified Elsewhere in  the SITC</t>
-        </is>
-      </c>
       <c r="D86" t="n">
         <v>1085.021074654558</v>
       </c>
@@ -3581,11 +3267,6 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Commodities and Transactions Not Classified Elsewhere in  the SITC</t>
-        </is>
-      </c>
       <c r="D87" t="n">
         <v>947.2286171577183</v>
       </c>
@@ -3618,11 +3299,6 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Crude Materials, Inedible, except Fuels</t>
-        </is>
-      </c>
       <c r="D88" t="n">
         <v>1000.042128605749</v>
       </c>
@@ -3655,11 +3331,6 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Crude Materials, Inedible, except Fuels</t>
-        </is>
-      </c>
       <c r="D89" t="n">
         <v>854.2753709427261</v>
       </c>
@@ -3692,11 +3363,6 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D90" t="n">
         <v>783.6559445593846</v>
       </c>
@@ -3729,11 +3395,6 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D91" t="n">
         <v>964.4508442734063</v>
       </c>
@@ -3765,19 +3426,8 @@
         <v>483.193186162306</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
+    <row r="92"/>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D93" t="n">
         <v>936.6622814854386</v>
       </c>
@@ -3810,11 +3460,6 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D94" t="n">
         <v>951.7245740484457</v>
       </c>
@@ -3847,11 +3492,6 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D95" t="n">
         <v>1093.773852088345</v>
       </c>
@@ -3884,11 +3524,6 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D96" t="n">
         <v>818.184260209286</v>
       </c>
@@ -3921,11 +3556,6 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D97" t="n">
         <v>891.7032201204976</v>
       </c>
@@ -3958,11 +3588,6 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D98" t="n">
         <v>1007.014701301327</v>
       </c>
@@ -3995,11 +3620,6 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D99" t="n">
         <v>1103.933429387504</v>
       </c>
@@ -4032,11 +3652,6 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D100" t="n">
         <v>1101.034874644722</v>
       </c>
@@ -4069,11 +3684,6 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D101" t="n">
         <v>1034.457524629371</v>
       </c>
@@ -4106,11 +3716,6 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D102" t="n">
         <v>1192.336439409179</v>
       </c>
@@ -4143,11 +3748,6 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D103" t="n">
         <v>1211.46907228292</v>
       </c>
@@ -4180,11 +3780,6 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D104" t="n">
         <v>1156.283318287873</v>
       </c>
@@ -4216,19 +3811,8 @@
         <v>557.4094521472301</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-    </row>
+    <row r="105"/>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D106" t="n">
         <v>1102.603467030674</v>
       </c>
@@ -4261,11 +3845,6 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D107" t="n">
         <v>1093.337836901255</v>
       </c>
@@ -4298,11 +3877,6 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D108" t="n">
         <v>1058.232043430979</v>
       </c>
@@ -4335,11 +3909,6 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
       <c r="D109" t="n">
         <v>970.9060449924372</v>
       </c>
@@ -4372,11 +3941,6 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D110" t="n">
         <v>1048.30075887742</v>
       </c>
@@ -4409,11 +3973,6 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D111" t="n">
         <v>1248.772858616604</v>
       </c>
@@ -4446,11 +4005,6 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D112" t="n">
         <v>1164.598544818325</v>
       </c>
@@ -4483,11 +4037,6 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D113" t="n">
         <v>1225.370614643617</v>
       </c>
@@ -4520,11 +4069,6 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D114" t="n">
         <v>1079.829898507709</v>
       </c>
@@ -4557,11 +4101,6 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D115" t="n">
         <v>1051.563849532975</v>
       </c>
@@ -4594,11 +4133,6 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D116" t="n">
         <v>995.3306766048757</v>
       </c>
@@ -4631,11 +4165,6 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D117" t="n">
         <v>1067.592843175036</v>
       </c>
@@ -4667,19 +4196,8 @@
         <v>512.9970557385708</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
+    <row r="118"/>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D119" t="n">
         <v>978.1692142738522</v>
       </c>
@@ -4712,11 +4230,6 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D120" t="n">
         <v>981.9602879262027</v>
       </c>
@@ -4749,11 +4262,6 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D121" t="n">
         <v>1037.454601851765</v>
       </c>
@@ -4786,11 +4294,6 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D122" t="n">
         <v>848.6106835552755</v>
       </c>
@@ -4823,11 +4326,6 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D123" t="n">
         <v>1019.488281084083</v>
       </c>
@@ -4860,11 +4358,6 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D124" t="n">
         <v>1005.343160255669</v>
       </c>
@@ -4897,11 +4390,6 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D125" t="n">
         <v>1020.436844183717</v>
       </c>
@@ -4934,11 +4422,6 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D126" t="n">
         <v>1118.645049087409</v>
       </c>
@@ -4971,11 +4454,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D127" t="n">
         <v>971.9093413000884</v>
       </c>
@@ -5008,11 +4486,6 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D128" t="n">
         <v>927.9594595076355</v>
       </c>
@@ -5045,11 +4518,6 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D129" t="n">
         <v>998.9726493735893</v>
       </c>
@@ -5082,11 +4550,6 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
       <c r="D130" t="n">
         <v>1001.760350345166</v>
       </c>
@@ -5118,19 +4581,8 @@
         <v>467.4581784512137</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>February</t>
-        </is>
-      </c>
-    </row>
+    <row r="131"/>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Food and Live Animals</t>
-        </is>
-      </c>
       <c r="D132" t="n">
         <v>970.7239598016961</v>
       </c>
@@ -5163,11 +4615,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Food and Live Animals</t>
-        </is>
-      </c>
       <c r="D133" t="n">
         <v>1059.318562299895</v>
       </c>
@@ -5200,11 +4647,6 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D134" t="n">
         <v>1148.481207862631</v>
       </c>
@@ -5237,11 +4679,6 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D135" t="n">
         <v>877.5787392596055</v>
       </c>
@@ -5274,11 +4711,6 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D136" t="n">
         <v>1011.254693750198</v>
       </c>
@@ -5311,11 +4743,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D137" t="n">
         <v>1077.024307218306</v>
       </c>
@@ -5348,11 +4775,6 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D138" t="n">
         <v>1130.279558446264</v>
       </c>
@@ -5385,11 +4807,6 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D139" t="n">
         <v>1231.682103055221</v>
       </c>
@@ -5422,11 +4839,6 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D140" t="n">
         <v>1011.737296254618</v>
       </c>
@@ -5459,11 +4871,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="D141" t="n">
         <v>1157.998340419053</v>
       </c>
@@ -5495,1322 +4902,25 @@
         <v>470.6319203134195</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>July</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>June</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Machinery and  Transport Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Machinery and  Transport Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Manufactured Goods Classified Chiefly by Material</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Manufactured Goods Classified Chiefly by Material</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>March</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>May</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Mineral Fuels, Lubricants and Related Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>Mineral Fuels, Lubricants and Related Materials</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Miscellaneous Manufactured Articles</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Miscellaneous Manufactured Articles</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>National Gem and Jewellery Authority</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>November</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Provisional</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>September</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>Sources: Ceylon Petroleum Corporation and Other Exporters of Petroleum</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>Sri Lanka Customs</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>Table 2.02.3: Exports (US$ Million)</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>Table 2.02.3: Exports (US$ Million)</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>The latest version of SITC Revision 4 published in 2006</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Total Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>Total Exports</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>…</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>…</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>…</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>…</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>… Negligible</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>… Negligible</t>
-        </is>
-      </c>
-    </row>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
